--- a/classfiers/nano/welm/nano_welm_rbf_results.xlsx
+++ b/classfiers/nano/welm/nano_welm_rbf_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8753369272237196</v>
+        <v>0.8998096144693005</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7916186635944701</v>
+        <v>0.8991116751269035</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7582390555828824</v>
+        <v>0.8341836734693877</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9292452830188679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9496753246753247</v>
+        <v>0.6960784313725489</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9198113207547169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.35</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9170990566037736</v>
+        <v>0.8357487922705314</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.943251442948054</v>
+        <v>0.9378421472229604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3306402369560265</v>
+        <v>0.2999680306905371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4897013730717846</v>
+        <v>0.4454836149935968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8583938055360341</v>
+        <v>0.8329864373417344</v>
       </c>
     </row>
   </sheetData>
